--- a/Tickets/Normal Tickets/Ticket 36031 - JIT pos not working/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 36031 - JIT pos not working/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 36031 - JIT pos not working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92F70CE-2046-4C08-A198-25D2B75916D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FB26A0-BBA2-4760-8CD5-85A8B2C0C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11715" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Test Case #</t>
   </si>
@@ -143,13 +143,25 @@
     <t>execute procedure on SQL08 and review the business object</t>
   </si>
   <si>
-    <t>Process Schedule in the Create Purchase Order for Cushion Fill</t>
-  </si>
-  <si>
-    <t>Screen shots of the application</t>
-  </si>
-  <si>
-    <t>off of JobClassification C221205-04  and job 000000010311053 edited the WipJobAllMat record for the stockcode FRAME-SCH-961 modifing the Warehouse setting the Warehouse to CL-RAW</t>
+    <t>off of JobClassification C221205-04  and job S edited the WipJobAllMat record for the stockcode FRAME-SCH-961 modifing the Warehouse setting the Warehouse to CL-RAW</t>
+  </si>
+  <si>
+    <t>Job set up with material</t>
+  </si>
+  <si>
+    <t>Bad xml gemerated for PORTOI</t>
+  </si>
+  <si>
+    <t>The issue with the above xml is that the object is creating two order for the supplier 1225887 with Warehouse CL-RAW and CL-PR. Further examination of the object shows that the two orders contains the same items.</t>
+  </si>
+  <si>
+    <t>PORTOI object creates bad orders</t>
+  </si>
+  <si>
+    <t>Procedure generates good data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This snippet from the object shows that the items within an order are divided up by supplier and warehouse now. </t>
   </si>
 </sst>
 </file>
@@ -353,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -427,41 +439,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -475,27 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -522,6 +531,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,6 +553,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952903</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D22329C-EF19-E77B-5CFF-DD02F4156D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="6165850"/>
+          <a:ext cx="7849003" cy="2000353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58846</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F97FE5-B90B-6CE0-315C-2B4AF8412867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="8467725"/>
+          <a:ext cx="12155596" cy="5077534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1535031</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE36BF7-41B1-7245-771B-AABBE2B9856E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="13677900"/>
+          <a:ext cx="10793331" cy="7582958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>239433</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>124611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADA44BF-75D1-939E-5E73-5636792D4D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="22231350"/>
+          <a:ext cx="9373908" cy="5630061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,121 +1105,128 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -1033,13 +1236,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1051,11 +1247,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:F23"/>
+      <pane ySplit="5" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159:F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1070,58 +1266,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="35">
+      <c r="B2" s="41"/>
+      <c r="C2" s="29">
         <v>1</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="35" t="str">
+      <c r="B3" s="41"/>
+      <c r="C3" s="29" t="str">
         <f>'Test Cases'!B2</f>
         <v>Verify new procedure</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="35" t="str">
+      <c r="B4" s="41"/>
+      <c r="C4" s="29" t="str">
         <f>'Test Cases'!D2</f>
         <v>SQL Server Management Studio</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
@@ -1133,20 +1329,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="38">
         <v>1</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="24" t="s">
         <v>31</v>
       </c>
@@ -1156,174 +1352,188 @@
       <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>35</v>
+      <c r="C8" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27">
-        <v>3</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <v>4</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="25" t="s">
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="11"/>
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="23"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="C23" s="56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C37" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="57"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="57"/>
+    </row>
+    <row r="121" spans="3:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="C121" s="56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C159" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" s="57"/>
+      <c r="E159" s="57"/>
+      <c r="F159" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C159:F159"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="C10:E13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
@@ -1332,33 +1542,24 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="C12:E15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1593,14 +1794,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1608,9 +1807,12 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1635,12 +1837,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
